--- a/LR3/table_1_27.xlsx
+++ b/LR3/table_1_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{977AE764-0124-409B-9882-8E370CC981A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B3B3FE-9D49-4007-A682-AF29ADDDC718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -553,14 +553,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A38" si="5">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C38" si="6">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4">
@@ -572,7 +571,7 @@
         <v>2064.15</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F38" si="7">F3</f>
+        <f t="shared" ref="F4:F38" si="6">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
@@ -583,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I38" si="8">I3</f>
+        <f t="shared" ref="I4:I38" si="7">I3</f>
         <v>10</v>
       </c>
       <c r="J4">
@@ -597,14 +596,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="D5">
@@ -616,7 +614,7 @@
         <v>2049.3000000000002</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
@@ -627,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J5">
@@ -641,14 +639,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6">
@@ -660,7 +657,7 @@
         <v>2034.4500000000003</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
@@ -671,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6">
@@ -685,14 +682,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7">
@@ -704,7 +700,7 @@
         <v>2019.6000000000001</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
@@ -715,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7">
@@ -729,14 +725,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8">
@@ -748,7 +743,7 @@
         <v>2004.7500000000002</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
@@ -759,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8">
@@ -773,14 +768,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9">
@@ -792,7 +786,7 @@
         <v>1989.9</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
@@ -803,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9">
@@ -817,14 +811,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10">
@@ -836,7 +829,7 @@
         <v>1975.0500000000002</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
@@ -847,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10">
@@ -861,14 +854,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11">
@@ -880,7 +872,7 @@
         <v>1960.2000000000003</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
@@ -891,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11">
@@ -905,14 +897,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12">
@@ -924,7 +915,7 @@
         <v>1945.3500000000001</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
@@ -935,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12">
@@ -949,14 +940,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13">
@@ -968,7 +958,7 @@
         <v>1930.5000000000002</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
@@ -979,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13">
@@ -993,14 +983,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14">
@@ -1012,7 +1001,7 @@
         <v>1915.65</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
@@ -1023,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14">
@@ -1037,14 +1026,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15">
@@ -1056,7 +1044,7 @@
         <v>1900.8000000000002</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
@@ -1067,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15">
@@ -1081,14 +1069,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16">
@@ -1100,7 +1087,7 @@
         <v>1885.9500000000003</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
@@ -1111,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="I16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16">
@@ -1125,14 +1112,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17">
@@ -1144,7 +1130,7 @@
         <v>1871.1000000000001</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
@@ -1155,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="I17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17">
@@ -1169,14 +1155,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18">
@@ -1188,7 +1173,7 @@
         <v>1856.2500000000002</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
@@ -1199,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="I18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18">
@@ -1213,14 +1198,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19">
@@ -1232,7 +1216,7 @@
         <v>1841.4</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
@@ -1243,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="I19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19">
@@ -1257,14 +1241,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20">
@@ -1276,7 +1259,7 @@
         <v>1826.5500000000002</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
@@ -1287,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20">
@@ -1301,14 +1284,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21">
@@ -1320,7 +1302,7 @@
         <v>1811.7000000000003</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
@@ -1331,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21">
@@ -1345,14 +1327,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22">
@@ -1364,7 +1345,7 @@
         <v>1796.8500000000001</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
@@ -1375,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22">
@@ -1389,14 +1370,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="C23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23">
@@ -1408,7 +1388,7 @@
         <v>1782.0000000000002</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
@@ -1419,7 +1399,7 @@
         <v>12</v>
       </c>
       <c r="I23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23">
@@ -1433,14 +1413,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24">
@@ -1452,7 +1431,7 @@
         <v>1767.15</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
@@ -1463,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="I24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24">
@@ -1477,14 +1456,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25">
@@ -1496,7 +1474,7 @@
         <v>1752.3000000000002</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
@@ -1507,7 +1485,7 @@
         <v>14</v>
       </c>
       <c r="I25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25">
@@ -1521,14 +1499,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26">
@@ -1540,7 +1517,7 @@
         <v>1737.4500000000003</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
@@ -1551,7 +1528,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26">
@@ -1565,14 +1542,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27">
@@ -1584,7 +1560,7 @@
         <v>1722.6000000000001</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
@@ -1595,7 +1571,7 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27">
@@ -1609,14 +1585,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28">
@@ -1628,7 +1603,7 @@
         <v>1707.7500000000002</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
@@ -1639,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="I28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28">
@@ -1653,14 +1628,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29">
@@ -1672,7 +1646,7 @@
         <v>1692.9</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
@@ -1683,7 +1657,7 @@
         <v>18</v>
       </c>
       <c r="I29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29">
@@ -1697,14 +1671,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30">
@@ -1716,7 +1689,7 @@
         <v>1678.0500000000002</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
@@ -1727,7 +1700,7 @@
         <v>19</v>
       </c>
       <c r="I30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30">
@@ -1741,14 +1714,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
       </c>
       <c r="C31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31">
@@ -1760,7 +1732,7 @@
         <v>1663.2000000000003</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
@@ -1771,7 +1743,7 @@
         <v>20</v>
       </c>
       <c r="I31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31">
@@ -1785,14 +1757,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
       <c r="C32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32">
@@ -1804,7 +1775,7 @@
         <v>1648.3500000000001</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
@@ -1815,7 +1786,7 @@
         <v>21</v>
       </c>
       <c r="I32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32">
@@ -1829,14 +1800,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
       <c r="C33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33">
@@ -1848,7 +1818,7 @@
         <v>1633.5000000000002</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
@@ -1859,7 +1829,7 @@
         <v>22</v>
       </c>
       <c r="I33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33">
@@ -1873,14 +1843,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
       <c r="C34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34">
@@ -1892,7 +1861,7 @@
         <v>1618.65</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
@@ -1903,7 +1872,7 @@
         <v>23</v>
       </c>
       <c r="I34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34">
@@ -1917,14 +1886,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
       <c r="C35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35">
@@ -1936,7 +1904,7 @@
         <v>801.90000000000009</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
@@ -1947,7 +1915,7 @@
         <v>24</v>
       </c>
       <c r="I35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35">
@@ -1961,14 +1929,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
       </c>
       <c r="C36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36">
@@ -1980,7 +1947,7 @@
         <v>794.47500000000002</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
@@ -1991,7 +1958,7 @@
         <v>25</v>
       </c>
       <c r="I36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36">
@@ -2005,14 +1972,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
       </c>
       <c r="C37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37">
@@ -2024,7 +1990,7 @@
         <v>787.05000000000007</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
@@ -2035,7 +2001,7 @@
         <v>26</v>
       </c>
       <c r="I37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37">
@@ -2049,14 +2015,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
       <c r="C38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38">
@@ -2068,7 +2033,7 @@
         <v>779.62500000000011</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
@@ -2079,7 +2044,7 @@
         <v>27</v>
       </c>
       <c r="I38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38">

--- a/LR3/table_1_27.xlsx
+++ b/LR3/table_1_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B3B3FE-9D49-4007-A682-AF29ADDDC718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E96EBDC-7EE4-43DA-AB7C-0D9B0642F82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -481,34 +481,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -516,17 +516,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>70</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D34" si="0">27*1.1</f>
+        <f>$A$1*1.1</f>
         <v>29.700000000000003</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E38" si="1">C3*D3</f>
+        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>2079</v>
       </c>
       <c r="F3" s="3">
@@ -536,18 +536,18 @@
         <v>44805</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H38" si="2">IF(G3&lt;F3, 0, G3-F3)</f>
+        <f t="shared" ref="H3:H38" si="1">IF(G3&lt;F3, 0, G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J38" si="3">H3*I3</f>
+        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K38" si="4">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
         <v>2079</v>
       </c>
     </row>
@@ -556,18 +556,18 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D38" si="5">$A$1*1.1</f>
         <v>29.700000000000003</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2064.15</v>
       </c>
       <c r="F4" s="3">
@@ -578,7 +578,7 @@
         <v>44806</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4">
@@ -586,11 +586,11 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2064.15</v>
       </c>
     </row>
@@ -599,18 +599,18 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2049.3000000000002</v>
       </c>
       <c r="F5" s="3">
@@ -621,7 +621,7 @@
         <v>44807</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5">
@@ -629,11 +629,11 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2049.3000000000002</v>
       </c>
     </row>
@@ -642,18 +642,18 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2034.4500000000003</v>
       </c>
       <c r="F6" s="3">
@@ -664,7 +664,7 @@
         <v>44808</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6">
@@ -672,11 +672,11 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2034.4500000000003</v>
       </c>
     </row>
@@ -685,18 +685,18 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2019.6000000000001</v>
       </c>
       <c r="F7" s="3">
@@ -707,7 +707,7 @@
         <v>44809</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7">
@@ -715,11 +715,11 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2019.6000000000001</v>
       </c>
     </row>
@@ -728,18 +728,18 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2004.7500000000002</v>
       </c>
       <c r="F8" s="3">
@@ -750,7 +750,7 @@
         <v>44810</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8">
@@ -758,11 +758,11 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2004.7500000000002</v>
       </c>
     </row>
@@ -771,18 +771,18 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1989.9</v>
       </c>
       <c r="F9" s="3">
@@ -793,7 +793,7 @@
         <v>44811</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9">
@@ -801,11 +801,11 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1989.9</v>
       </c>
     </row>
@@ -814,18 +814,18 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1975.0500000000002</v>
       </c>
       <c r="F10" s="3">
@@ -836,7 +836,7 @@
         <v>44812</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10">
@@ -844,11 +844,11 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1975.0500000000002</v>
       </c>
     </row>
@@ -857,18 +857,18 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1960.2000000000003</v>
       </c>
       <c r="F11" s="3">
@@ -879,7 +879,7 @@
         <v>44813</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11">
@@ -887,11 +887,11 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1960.2000000000003</v>
       </c>
     </row>
@@ -900,18 +900,18 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1945.3500000000001</v>
       </c>
       <c r="F12" s="3">
@@ -922,7 +922,7 @@
         <v>44814</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12">
@@ -930,11 +930,11 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1955.3500000000001</v>
       </c>
     </row>
@@ -943,18 +943,18 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1930.5000000000002</v>
       </c>
       <c r="F13" s="3">
@@ -965,7 +965,7 @@
         <v>44815</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13">
@@ -973,11 +973,11 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1950.5000000000002</v>
       </c>
     </row>
@@ -986,18 +986,18 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1915.65</v>
       </c>
       <c r="F14" s="3">
@@ -1008,7 +1008,7 @@
         <v>44816</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14">
@@ -1016,11 +1016,11 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1945.65</v>
       </c>
     </row>
@@ -1029,18 +1029,18 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1900.8000000000002</v>
       </c>
       <c r="F15" s="3">
@@ -1051,7 +1051,7 @@
         <v>44817</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15">
@@ -1059,11 +1059,11 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1940.8000000000002</v>
       </c>
     </row>
@@ -1072,18 +1072,18 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1885.9500000000003</v>
       </c>
       <c r="F16" s="3">
@@ -1094,7 +1094,7 @@
         <v>44818</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16">
@@ -1102,11 +1102,11 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1935.9500000000003</v>
       </c>
     </row>
@@ -1115,18 +1115,18 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1871.1000000000001</v>
       </c>
       <c r="F17" s="3">
@@ -1137,7 +1137,7 @@
         <v>44819</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17">
@@ -1145,11 +1145,11 @@
         <v>10</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1931.1000000000001</v>
       </c>
     </row>
@@ -1158,18 +1158,18 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1856.2500000000002</v>
       </c>
       <c r="F18" s="3">
@@ -1180,7 +1180,7 @@
         <v>44820</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18">
@@ -1188,11 +1188,11 @@
         <v>10</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1926.2500000000002</v>
       </c>
     </row>
@@ -1201,18 +1201,18 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1841.4</v>
       </c>
       <c r="F19" s="3">
@@ -1223,7 +1223,7 @@
         <v>44821</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19">
@@ -1231,11 +1231,11 @@
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1921.4</v>
       </c>
     </row>
@@ -1244,18 +1244,18 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1826.5500000000002</v>
       </c>
       <c r="F20" s="3">
@@ -1266,7 +1266,7 @@
         <v>44822</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20">
@@ -1274,11 +1274,11 @@
         <v>10</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1916.5500000000002</v>
       </c>
     </row>
@@ -1287,18 +1287,18 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1811.7000000000003</v>
       </c>
       <c r="F21" s="3">
@@ -1309,7 +1309,7 @@
         <v>44823</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21">
@@ -1317,11 +1317,11 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1911.7000000000003</v>
       </c>
     </row>
@@ -1330,18 +1330,18 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1796.8500000000001</v>
       </c>
       <c r="F22" s="3">
@@ -1352,7 +1352,7 @@
         <v>44824</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22">
@@ -1360,11 +1360,11 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1906.8500000000001</v>
       </c>
     </row>
@@ -1373,18 +1373,18 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1782.0000000000002</v>
       </c>
       <c r="F23" s="3">
@@ -1395,7 +1395,7 @@
         <v>44825</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23">
@@ -1403,11 +1403,11 @@
         <v>10</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1902.0000000000002</v>
       </c>
     </row>
@@ -1416,18 +1416,18 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1767.15</v>
       </c>
       <c r="F24" s="3">
@@ -1438,7 +1438,7 @@
         <v>44826</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24">
@@ -1446,11 +1446,11 @@
         <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1897.15</v>
       </c>
     </row>
@@ -1459,18 +1459,18 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1752.3000000000002</v>
       </c>
       <c r="F25" s="3">
@@ -1481,7 +1481,7 @@
         <v>44827</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25">
@@ -1489,11 +1489,11 @@
         <v>10</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1892.3000000000002</v>
       </c>
     </row>
@@ -1502,18 +1502,18 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1737.4500000000003</v>
       </c>
       <c r="F26" s="3">
@@ -1524,7 +1524,7 @@
         <v>44828</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26">
@@ -1532,11 +1532,11 @@
         <v>10</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1887.4500000000003</v>
       </c>
     </row>
@@ -1545,18 +1545,18 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1722.6000000000001</v>
       </c>
       <c r="F27" s="3">
@@ -1567,7 +1567,7 @@
         <v>44829</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27">
@@ -1575,11 +1575,11 @@
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1882.6000000000001</v>
       </c>
     </row>
@@ -1588,18 +1588,18 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1707.7500000000002</v>
       </c>
       <c r="F28" s="3">
@@ -1610,7 +1610,7 @@
         <v>44830</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28">
@@ -1618,11 +1618,11 @@
         <v>10</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1877.7500000000002</v>
       </c>
     </row>
@@ -1631,18 +1631,18 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1692.9</v>
       </c>
       <c r="F29" s="3">
@@ -1653,7 +1653,7 @@
         <v>44831</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29">
@@ -1661,11 +1661,11 @@
         <v>10</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1872.9</v>
       </c>
     </row>
@@ -1674,18 +1674,18 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1678.0500000000002</v>
       </c>
       <c r="F30" s="3">
@@ -1696,7 +1696,7 @@
         <v>44832</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30">
@@ -1704,11 +1704,11 @@
         <v>10</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1868.0500000000002</v>
       </c>
     </row>
@@ -1717,18 +1717,18 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1663.2000000000003</v>
       </c>
       <c r="F31" s="3">
@@ -1739,7 +1739,7 @@
         <v>44833</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31">
@@ -1747,11 +1747,11 @@
         <v>10</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1863.2000000000003</v>
       </c>
     </row>
@@ -1760,18 +1760,18 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1648.3500000000001</v>
       </c>
       <c r="F32" s="3">
@@ -1782,7 +1782,7 @@
         <v>44834</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32">
@@ -1790,11 +1790,11 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1858.3500000000001</v>
       </c>
     </row>
@@ -1803,18 +1803,18 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1633.5000000000002</v>
       </c>
       <c r="F33" s="3">
@@ -1825,7 +1825,7 @@
         <v>44835</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33">
@@ -1833,11 +1833,11 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1853.5000000000002</v>
       </c>
     </row>
@@ -1846,18 +1846,18 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1618.65</v>
       </c>
       <c r="F34" s="3">
@@ -1868,7 +1868,7 @@
         <v>44836</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34">
@@ -1876,11 +1876,11 @@
         <v>10</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1848.65</v>
       </c>
     </row>
@@ -1889,19 +1889,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35">
-        <f>D34/2</f>
-        <v>14.850000000000001</v>
+        <f t="shared" si="5"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
-        <v>801.90000000000009</v>
+        <f t="shared" si="0"/>
+        <v>1603.8000000000002</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="6"/>
@@ -1911,7 +1911,7 @@
         <v>44837</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35">
@@ -1919,12 +1919,12 @@
         <v>10</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35">
-        <f t="shared" si="4"/>
-        <v>1041.9000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1843.8000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1932,19 +1932,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36">
-        <f>D35</f>
-        <v>14.850000000000001</v>
+        <f t="shared" si="5"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
-        <v>794.47500000000002</v>
+        <f t="shared" si="0"/>
+        <v>1588.95</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="6"/>
@@ -1954,7 +1954,7 @@
         <v>44838</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36">
@@ -1962,12 +1962,12 @@
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
-        <v>1044.4749999999999</v>
+        <f t="shared" si="3"/>
+        <v>1838.95</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1975,19 +1975,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37">
-        <f>D36</f>
-        <v>14.850000000000001</v>
+        <f t="shared" si="5"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
-        <v>787.05000000000007</v>
+        <f t="shared" si="0"/>
+        <v>1574.1000000000001</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="6"/>
@@ -1997,7 +1997,7 @@
         <v>44839</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37">
@@ -2005,12 +2005,12 @@
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
-        <v>1047.0500000000002</v>
+        <f t="shared" si="3"/>
+        <v>1834.1000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2018,19 +2018,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38">
-        <f>D37</f>
-        <v>14.850000000000001</v>
+        <f t="shared" si="5"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
-        <v>779.62500000000011</v>
+        <f t="shared" si="0"/>
+        <v>1559.2500000000002</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="6"/>
@@ -2040,7 +2040,7 @@
         <v>44840</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38">
@@ -2048,26 +2048,26 @@
         <v>10</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38">
-        <f t="shared" si="4"/>
-        <v>1049.625</v>
+        <f t="shared" si="3"/>
+        <v>1829.2500000000002</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2">
         <f>INT(SUM(K3:K38))</f>
-        <v>66105</v>
+        <v>69268</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_27.xlsx
+++ b/LR3/table_1_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E96EBDC-7EE4-43DA-AB7C-0D9B0642F82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66A9D98-FDC1-458C-8627-1CC698FA28AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -553,6 +553,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -596,6 +597,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="8">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -639,6 +641,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -682,6 +685,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -725,6 +729,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -768,6 +773,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -811,6 +817,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -854,6 +861,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -897,6 +905,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -940,6 +949,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -983,6 +993,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1026,6 +1037,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1069,6 +1081,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1112,6 +1125,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1155,6 +1169,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1198,6 +1213,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1241,6 +1257,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1284,6 +1301,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1327,6 +1345,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1370,6 +1389,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1413,6 +1433,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1456,6 +1477,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1499,6 +1521,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -1542,6 +1565,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -1585,6 +1609,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -1628,6 +1653,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -1671,6 +1697,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -1714,6 +1741,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -1757,6 +1785,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -1800,6 +1829,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -1843,6 +1873,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -1886,6 +1917,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -1929,6 +1961,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -1972,6 +2005,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -2015,6 +2049,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">

--- a/LR3/table_1_27.xlsx
+++ b/LR3/table_1_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66A9D98-FDC1-458C-8627-1CC698FA28AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D2D92-C0E5-4D6C-AED4-6728FE2B1576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -178,10 +175,13 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -452,21 +452,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
     <col min="10" max="10" width="11.21875" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
   </cols>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -502,21 +502,21 @@
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3">
         <v>70</v>
@@ -552,12 +552,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
@@ -596,12 +596,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <f t="shared" ref="A5:A38" si="8">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <f t="shared" si="4"/>
@@ -640,12 +640,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <f t="shared" si="4"/>
@@ -684,12 +684,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <f t="shared" si="4"/>
@@ -728,12 +728,12 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
@@ -772,12 +772,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
@@ -816,12 +816,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
@@ -860,56 +860,56 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1960.2000000000003</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44813</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>1960.2000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="5"/>
-        <v>29.700000000000003</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1960.2000000000003</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="3">
-        <v>44813</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
-        <v>1960.2000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
@@ -948,12 +948,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
@@ -992,12 +992,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
@@ -1036,12 +1036,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
@@ -1080,12 +1080,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
@@ -1124,12 +1124,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
@@ -1168,12 +1168,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
@@ -1212,12 +1212,12 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
@@ -1256,12 +1256,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
@@ -1300,12 +1300,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <f t="shared" si="4"/>
@@ -1344,12 +1344,12 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
@@ -1388,12 +1388,12 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <f t="shared" si="4"/>
@@ -1432,12 +1432,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
@@ -1476,12 +1476,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
@@ -1520,12 +1520,12 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
@@ -1564,12 +1564,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <f t="shared" si="4"/>
@@ -1608,12 +1608,12 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
@@ -1652,12 +1652,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
@@ -1696,12 +1696,12 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
@@ -1740,12 +1740,12 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
@@ -1784,12 +1784,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
@@ -1828,12 +1828,12 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
@@ -1872,12 +1872,12 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
@@ -1916,12 +1916,12 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
@@ -1960,12 +1960,12 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
@@ -2004,12 +2004,12 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
@@ -2048,12 +2048,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2">
         <f>INT(SUM(K3:K38))</f>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_27.xlsx
+++ b/LR3/table_1_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D2D92-C0E5-4D6C-AED4-6728FE2B1576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A75613-949B-4ECA-8756-6F886A00FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,21 +151,6 @@
     <t>Куропаткин 11</t>
   </si>
   <si>
-    <t xml:space="preserve"> Куропаткин 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куропаткин 16</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -182,13 +167,31 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Куропаткин 12</t>
+  </si>
+  <si>
+    <t>Куропаткин 13</t>
+  </si>
+  <si>
+    <t>Куропаткин 14</t>
+  </si>
+  <si>
+    <t>Куропаткин 15</t>
+  </si>
+  <si>
+    <t>Куропаткин 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0\ _₽"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +201,10 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -229,6 +236,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -481,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -502,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>7</v>
@@ -576,6 +586,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="3">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4">
@@ -620,6 +631,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="3">
+        <f t="shared" ref="G5:G38" si="9">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5">
@@ -664,6 +676,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" si="9"/>
         <v>44808</v>
       </c>
       <c r="H6">
@@ -708,6 +721,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" si="9"/>
         <v>44809</v>
       </c>
       <c r="H7">
@@ -752,6 +766,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="9"/>
         <v>44810</v>
       </c>
       <c r="H8">
@@ -796,6 +811,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="9"/>
         <v>44811</v>
       </c>
       <c r="H9">
@@ -840,6 +856,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="9"/>
         <v>44812</v>
       </c>
       <c r="H10">
@@ -884,6 +901,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="9"/>
         <v>44813</v>
       </c>
       <c r="H11">
@@ -928,6 +946,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="9"/>
         <v>44814</v>
       </c>
       <c r="H12">
@@ -972,6 +991,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" si="9"/>
         <v>44815</v>
       </c>
       <c r="H13">
@@ -1016,6 +1036,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="3">
+        <f t="shared" si="9"/>
         <v>44816</v>
       </c>
       <c r="H14">
@@ -1060,6 +1081,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="3">
+        <f t="shared" si="9"/>
         <v>44817</v>
       </c>
       <c r="H15">
@@ -1104,6 +1126,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" si="9"/>
         <v>44818</v>
       </c>
       <c r="H16">
@@ -1148,6 +1171,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="3">
+        <f t="shared" si="9"/>
         <v>44819</v>
       </c>
       <c r="H17">
@@ -1192,6 +1216,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="3">
+        <f t="shared" si="9"/>
         <v>44820</v>
       </c>
       <c r="H18">
@@ -1236,6 +1261,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="3">
+        <f t="shared" si="9"/>
         <v>44821</v>
       </c>
       <c r="H19">
@@ -1280,6 +1306,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="3">
+        <f t="shared" si="9"/>
         <v>44822</v>
       </c>
       <c r="H20">
@@ -1324,6 +1351,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="3">
+        <f t="shared" si="9"/>
         <v>44823</v>
       </c>
       <c r="H21">
@@ -1368,6 +1396,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="3">
+        <f t="shared" si="9"/>
         <v>44824</v>
       </c>
       <c r="H22">
@@ -1412,6 +1441,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="3">
+        <f t="shared" si="9"/>
         <v>44825</v>
       </c>
       <c r="H23">
@@ -1456,6 +1486,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="3">
+        <f t="shared" si="9"/>
         <v>44826</v>
       </c>
       <c r="H24">
@@ -1500,6 +1531,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="3">
+        <f t="shared" si="9"/>
         <v>44827</v>
       </c>
       <c r="H25">
@@ -1544,6 +1576,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="3">
+        <f t="shared" si="9"/>
         <v>44828</v>
       </c>
       <c r="H26">
@@ -1588,6 +1621,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="3">
+        <f t="shared" si="9"/>
         <v>44829</v>
       </c>
       <c r="H27">
@@ -1632,6 +1666,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="3">
+        <f t="shared" si="9"/>
         <v>44830</v>
       </c>
       <c r="H28">
@@ -1676,6 +1711,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="3">
+        <f t="shared" si="9"/>
         <v>44831</v>
       </c>
       <c r="H29">
@@ -1720,6 +1756,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="3">
+        <f t="shared" si="9"/>
         <v>44832</v>
       </c>
       <c r="H30">
@@ -1764,6 +1801,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="3">
+        <f t="shared" si="9"/>
         <v>44833</v>
       </c>
       <c r="H31">
@@ -1808,6 +1846,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="3">
+        <f t="shared" si="9"/>
         <v>44834</v>
       </c>
       <c r="H32">
@@ -1852,6 +1891,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="3">
+        <f t="shared" si="9"/>
         <v>44835</v>
       </c>
       <c r="H33">
@@ -1877,7 +1917,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
@@ -1896,6 +1936,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="3">
+        <f t="shared" si="9"/>
         <v>44836</v>
       </c>
       <c r="H34">
@@ -1921,25 +1962,26 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
-        <v>29.700000000000003</v>
+        <f>($A$1*1.1)/2</f>
+        <v>14.850000000000001</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>1603.8000000000002</v>
+        <v>801.90000000000009</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
+        <f t="shared" si="9"/>
         <v>44837</v>
       </c>
       <c r="H35">
@@ -1956,7 +1998,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="3"/>
-        <v>1843.8000000000002</v>
+        <v>1041.9000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1965,25 +2007,26 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
-        <v>29.700000000000003</v>
+        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
+        <v>14.850000000000001</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>1588.95</v>
+        <v>794.47500000000002</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
+        <f t="shared" si="9"/>
         <v>44838</v>
       </c>
       <c r="H36">
@@ -2000,7 +2043,7 @@
       </c>
       <c r="K36">
         <f t="shared" si="3"/>
-        <v>1838.95</v>
+        <v>1044.4749999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2009,25 +2052,26 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
-        <v>29.700000000000003</v>
+        <f t="shared" si="10"/>
+        <v>14.850000000000001</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>1574.1000000000001</v>
+        <v>787.05000000000007</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
+        <f t="shared" si="9"/>
         <v>44839</v>
       </c>
       <c r="H37">
@@ -2044,7 +2088,7 @@
       </c>
       <c r="K37">
         <f t="shared" si="3"/>
-        <v>1834.1000000000001</v>
+        <v>1047.0500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2053,25 +2097,26 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
-        <v>29.700000000000003</v>
+        <f t="shared" si="10"/>
+        <v>14.850000000000001</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>1559.2500000000002</v>
+        <v>779.62500000000011</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
+        <f t="shared" si="9"/>
         <v>44840</v>
       </c>
       <c r="H38">
@@ -2088,21 +2133,21 @@
       </c>
       <c r="K38">
         <f t="shared" si="3"/>
-        <v>1829.2500000000002</v>
+        <v>1049.625</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="2">
-        <f>INT(SUM(K3:K38))</f>
-        <v>69268</v>
+        <v>40</v>
+      </c>
+      <c r="C40" s="4">
+        <f>SUM(K3:K38)</f>
+        <v>66105.450000000012</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2111,7 +2156,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2120,7 +2165,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
@@ -2128,6 +2173,11 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D35" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/LR3/table_1_27.xlsx
+++ b/LR3/table_1_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A75613-949B-4ECA-8756-6F886A00FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA08005-7E61-4819-A1CF-CEF164197E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ _₽"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -236,7 +236,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>70</v>
       </c>
       <c r="D3">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>29.700000000000003</v>
       </c>
       <c r="E3">
@@ -546,18 +546,18 @@
         <v>44805</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H38" si="1">IF(G3&lt;F3, 0, G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
+        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
         <v>2079</v>
       </c>
     </row>
@@ -570,11 +570,11 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="3">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D38" si="5">$A$1*1.1</f>
+        <f>D3</f>
         <v>29.700000000000003</v>
       </c>
       <c r="E4">
@@ -582,7 +582,7 @@
         <v>2064.15</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F38" si="6">F3</f>
+        <f t="shared" ref="F4:F38" si="4">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
@@ -590,36 +590,36 @@
         <v>44806</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H4:H38" si="5">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I38" si="7">I3</f>
+        <f t="shared" ref="I4:I38" si="6">I3</f>
         <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2064.15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="8">A4+1</f>
+        <f t="shared" ref="A5:A38" si="7">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="D5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D5:D38" si="8">D4</f>
         <v>29.700000000000003</v>
       </c>
       <c r="E5">
@@ -627,7 +627,7 @@
         <v>2049.3000000000002</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
@@ -635,36 +635,36 @@
         <v>44807</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2049.3000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E6">
@@ -672,7 +672,7 @@
         <v>2034.4500000000003</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
@@ -680,36 +680,36 @@
         <v>44808</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2034.4500000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="D7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E7">
@@ -717,7 +717,7 @@
         <v>2019.6000000000001</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
@@ -725,36 +725,36 @@
         <v>44809</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2019.6000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E8">
@@ -762,7 +762,7 @@
         <v>2004.7500000000002</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
@@ -770,36 +770,36 @@
         <v>44810</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2004.7500000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="D9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E9">
@@ -807,7 +807,7 @@
         <v>1989.9</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
@@ -815,36 +815,36 @@
         <v>44811</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1989.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>66.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E10">
@@ -852,7 +852,7 @@
         <v>1975.0500000000002</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
@@ -860,36 +860,36 @@
         <v>44812</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1975.0500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="D11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E11">
@@ -897,7 +897,7 @@
         <v>1960.2000000000003</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
@@ -905,36 +905,36 @@
         <v>44813</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1960.2000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>65.5</v>
       </c>
       <c r="D12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E12">
@@ -942,7 +942,7 @@
         <v>1945.3500000000001</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
@@ -950,36 +950,36 @@
         <v>44814</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1955.3500000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="D13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E13">
@@ -987,7 +987,7 @@
         <v>1930.5000000000002</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
@@ -995,36 +995,36 @@
         <v>44815</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1950.5000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>64.5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E14">
@@ -1032,7 +1032,7 @@
         <v>1915.65</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
@@ -1040,36 +1040,36 @@
         <v>44816</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1945.65</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E15">
@@ -1077,7 +1077,7 @@
         <v>1900.8000000000002</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
@@ -1085,36 +1085,36 @@
         <v>44817</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1940.8000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>63.5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E16">
@@ -1122,7 +1122,7 @@
         <v>1885.9500000000003</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
@@ -1130,36 +1130,36 @@
         <v>44818</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1935.9500000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E17">
@@ -1167,7 +1167,7 @@
         <v>1871.1000000000001</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
@@ -1175,36 +1175,36 @@
         <v>44819</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1931.1000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E18">
@@ -1212,7 +1212,7 @@
         <v>1856.2500000000002</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
@@ -1220,36 +1220,36 @@
         <v>44820</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1926.2500000000002</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E19">
@@ -1257,7 +1257,7 @@
         <v>1841.4</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
@@ -1265,36 +1265,36 @@
         <v>44821</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="I19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1921.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E20">
@@ -1302,7 +1302,7 @@
         <v>1826.5500000000002</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
@@ -1310,36 +1310,36 @@
         <v>44822</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="I20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1916.5500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E21">
@@ -1347,7 +1347,7 @@
         <v>1811.7000000000003</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
@@ -1355,36 +1355,36 @@
         <v>44823</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1911.7000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E22">
@@ -1392,7 +1392,7 @@
         <v>1796.8500000000001</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
@@ -1400,36 +1400,36 @@
         <v>44824</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="I22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1906.8500000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E23">
@@ -1437,7 +1437,7 @@
         <v>1782.0000000000002</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
@@ -1445,36 +1445,36 @@
         <v>44825</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="I23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1902.0000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>59.5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E24">
@@ -1482,7 +1482,7 @@
         <v>1767.15</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
@@ -1490,36 +1490,36 @@
         <v>44826</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="I24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1897.15</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E25">
@@ -1527,7 +1527,7 @@
         <v>1752.3000000000002</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
@@ -1535,36 +1535,36 @@
         <v>44827</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="I25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1892.3000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>58.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E26">
@@ -1572,7 +1572,7 @@
         <v>1737.4500000000003</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
@@ -1580,36 +1580,36 @@
         <v>44828</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="I26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1887.4500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E27">
@@ -1617,7 +1617,7 @@
         <v>1722.6000000000001</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
@@ -1625,36 +1625,36 @@
         <v>44829</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1882.6000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E28">
@@ -1662,7 +1662,7 @@
         <v>1707.7500000000002</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
@@ -1670,36 +1670,36 @@
         <v>44830</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="I28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1877.7500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="D29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E29">
@@ -1707,7 +1707,7 @@
         <v>1692.9</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
@@ -1715,36 +1715,36 @@
         <v>44831</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1872.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>56.5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E30">
@@ -1752,7 +1752,7 @@
         <v>1678.0500000000002</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
@@ -1760,36 +1760,36 @@
         <v>44832</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="I30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1868.0500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E31">
@@ -1797,7 +1797,7 @@
         <v>1663.2000000000003</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
@@ -1805,36 +1805,36 @@
         <v>44833</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="I31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1863.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E32">
@@ -1842,7 +1842,7 @@
         <v>1648.3500000000001</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
@@ -1850,36 +1850,36 @@
         <v>44834</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="I32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1858.3500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E33">
@@ -1887,7 +1887,7 @@
         <v>1633.5000000000002</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
@@ -1895,36 +1895,36 @@
         <v>44835</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1853.5000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
       </c>
       <c r="C34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E34">
@@ -1932,7 +1932,7 @@
         <v>1618.65</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
@@ -1940,36 +1940,36 @@
         <v>44836</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="I34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1848.65</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>47</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="D35">
-        <f>($A$1*1.1)/2</f>
+        <f>D3/2</f>
         <v>14.850000000000001</v>
       </c>
       <c r="E35">
@@ -1977,7 +1977,7 @@
         <v>801.90000000000009</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
@@ -1985,36 +1985,36 @@
         <v>44837</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="I35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1041.9000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>48</v>
       </c>
       <c r="C36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53.5</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
+        <f t="shared" si="8"/>
         <v>14.850000000000001</v>
       </c>
       <c r="E36">
@@ -2022,7 +2022,7 @@
         <v>794.47500000000002</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
@@ -2030,36 +2030,36 @@
         <v>44838</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="I36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1044.4749999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="D37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>14.850000000000001</v>
       </c>
       <c r="E37">
@@ -2067,7 +2067,7 @@
         <v>787.05000000000007</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
@@ -2075,36 +2075,36 @@
         <v>44839</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="I37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1047.0500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>14.850000000000001</v>
       </c>
       <c r="E38">
@@ -2112,7 +2112,7 @@
         <v>779.62500000000011</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
@@ -2120,19 +2120,19 @@
         <v>44840</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="I38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1049.625</v>
       </c>
     </row>
@@ -2141,8 +2141,8 @@
         <v>40</v>
       </c>
       <c r="C40" s="4">
-        <f>SUM(K3:K38)</f>
-        <v>66105.450000000012</v>
+        <f>FLOOR(SUM(K3:K38),2)</f>
+        <v>66104</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2176,8 +2176,5 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D35" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/LR3/table_1_27.xlsx
+++ b/LR3/table_1_27.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evgeniya\Desktop\IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -74,9 +74,6 @@
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t>Абдельвахаб</t>
-  </si>
-  <si>
     <t>Алтынов</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Гиниатулин</t>
   </si>
   <si>
-    <t>Гурбуз</t>
-  </si>
-  <si>
     <t>Елеиссави</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>Низамова</t>
   </si>
   <si>
-    <t>Озтюрк</t>
-  </si>
-  <si>
     <t>Санутков</t>
   </si>
   <si>
@@ -177,6 +168,15 @@
   </si>
   <si>
     <t>Банницин</t>
+  </si>
+  <si>
+    <t>Гюрбюз</t>
+  </si>
+  <si>
+    <t>Озотюрк</t>
+  </si>
+  <si>
+    <t>Адельвахаб</t>
   </si>
 </sst>
 </file>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5">
         <v>70</v>
@@ -687,14 +687,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D34" si="1">$A$1*1.1</f>
+        <f t="shared" ref="D4:D10" si="1">$A$1*1.1</f>
         <v>29.700000000000003</v>
       </c>
       <c r="E4" s="5">
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -777,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="6"/>
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="6"/>
@@ -867,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="6"/>
@@ -912,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="6"/>
@@ -957,7 +957,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="6"/>
@@ -1002,14 +1002,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:D33" si="10">$A$1*1.1/2</f>
+        <f>$A$1*1.1*0.5</f>
         <v>14.850000000000001</v>
       </c>
       <c r="E11" s="5">
@@ -1047,14 +1047,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="10"/>
+        <f>$A$1*1.1*0.5</f>
         <v>14.850000000000001</v>
       </c>
       <c r="E12" s="5">
@@ -1092,14 +1092,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D13:D38" si="10">$A$1*1.1*0.5</f>
         <v>14.850000000000001</v>
       </c>
       <c r="E13" s="5">
@@ -1137,7 +1137,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="6"/>
@@ -1182,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="6"/>
@@ -1227,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="6"/>
@@ -1272,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="6"/>
@@ -1317,7 +1317,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="6"/>
@@ -1362,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="6"/>
@@ -1407,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="6"/>
@@ -1452,7 +1452,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="6"/>
@@ -1497,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="6"/>
@@ -1542,7 +1542,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="6"/>
@@ -1587,7 +1587,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="6"/>
@@ -1632,7 +1632,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="6"/>
@@ -1677,7 +1677,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="6"/>
@@ -1722,7 +1722,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="6"/>
@@ -1767,7 +1767,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="6"/>
@@ -1812,7 +1812,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="6"/>
@@ -1857,7 +1857,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="6"/>
@@ -1902,7 +1902,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="6"/>
@@ -1947,7 +1947,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="6"/>
@@ -1992,7 +1992,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="6"/>
@@ -2037,14 +2037,14 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="5">
-        <f>$A$1*1.1/2</f>
+        <f t="shared" si="10"/>
         <v>14.850000000000001</v>
       </c>
       <c r="E34" s="5">
@@ -2082,14 +2082,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="5">
-        <f>$A$1*1.1/2</f>
+        <f t="shared" si="10"/>
         <v>14.850000000000001</v>
       </c>
       <c r="E35" s="5">
@@ -2127,14 +2127,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="11">$A$1*1.1/2</f>
+        <f t="shared" si="10"/>
         <v>14.850000000000001</v>
       </c>
       <c r="E36" s="5">
@@ -2172,14 +2172,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>14.850000000000001</v>
       </c>
       <c r="E37" s="5">
@@ -2224,7 +2224,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>14.850000000000001</v>
       </c>
       <c r="E38" s="5">

--- a/LR3/table_1_27.xlsx
+++ b/LR3/table_1_27.xlsx
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D10" si="1">$A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="1">$A$1*1.1</f>
         <v>29.700000000000003</v>
       </c>
       <c r="E4" s="5">
@@ -1009,12 +1009,12 @@
         <v>66</v>
       </c>
       <c r="D11" s="5">
-        <f>$A$1*1.1*0.5</f>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>980.10000000000014</v>
+        <v>1960.2000000000003</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="7"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="K11" s="5">
         <f t="shared" si="4"/>
-        <v>980.10000000000014</v>
+        <v>1960.2000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1054,12 +1054,12 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="5">
-        <f>$A$1*1.1*0.5</f>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>972.67500000000007</v>
+        <v>1945.3500000000001</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="7"/>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="K12" s="5">
         <f t="shared" si="4"/>
-        <v>982.67500000000007</v>
+        <v>1955.3500000000001</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1099,12 +1099,12 @@
         <v>65</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" ref="D13:D38" si="10">$A$1*1.1*0.5</f>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>965.25000000000011</v>
+        <v>1930.5000000000002</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="7"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="K13" s="5">
         <f t="shared" si="4"/>
-        <v>985.25000000000011</v>
+        <v>1950.5000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1144,12 +1144,12 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>957.82500000000005</v>
+        <v>1915.65</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="7"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="K14" s="5">
         <f t="shared" si="4"/>
-        <v>987.82500000000005</v>
+        <v>1945.65</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1189,12 +1189,12 @@
         <v>64</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>950.40000000000009</v>
+        <v>1900.8000000000002</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="7"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="K15" s="5">
         <f t="shared" si="4"/>
-        <v>990.40000000000009</v>
+        <v>1940.8000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1234,12 +1234,12 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>942.97500000000014</v>
+        <v>1885.9500000000003</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="7"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K16" s="5">
         <f t="shared" si="4"/>
-        <v>992.97500000000014</v>
+        <v>1935.9500000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1279,12 +1279,12 @@
         <v>63</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>935.55000000000007</v>
+        <v>1871.1000000000001</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="7"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="K17" s="5">
         <f t="shared" si="4"/>
-        <v>995.55000000000007</v>
+        <v>1931.1000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1324,12 +1324,12 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>928.12500000000011</v>
+        <v>1856.2500000000002</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="7"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="K18" s="5">
         <f t="shared" si="4"/>
-        <v>998.12500000000011</v>
+        <v>1926.2500000000002</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1369,12 +1369,12 @@
         <v>62</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>920.7</v>
+        <v>1841.4</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="7"/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="K19" s="5">
         <f t="shared" si="4"/>
-        <v>1000.7</v>
+        <v>1921.4</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1414,12 +1414,12 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>913.27500000000009</v>
+        <v>1826.5500000000002</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="7"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="K20" s="5">
         <f t="shared" si="4"/>
-        <v>1003.2750000000001</v>
+        <v>1916.5500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1459,12 +1459,12 @@
         <v>61</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>905.85000000000014</v>
+        <v>1811.7000000000003</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="7"/>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="K21" s="5">
         <f t="shared" si="4"/>
-        <v>1005.8500000000001</v>
+        <v>1911.7000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1504,12 +1504,12 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>898.42500000000007</v>
+        <v>1796.8500000000001</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="7"/>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K22" s="5">
         <f t="shared" si="4"/>
-        <v>1008.4250000000001</v>
+        <v>1906.8500000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1549,12 +1549,12 @@
         <v>60</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>891.00000000000011</v>
+        <v>1782.0000000000002</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="7"/>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="K23" s="5">
         <f t="shared" si="4"/>
-        <v>1011.0000000000001</v>
+        <v>1902.0000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1594,12 +1594,12 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>883.57500000000005</v>
+        <v>1767.15</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="7"/>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="K24" s="5">
         <f t="shared" si="4"/>
-        <v>1013.575</v>
+        <v>1897.15</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1639,12 +1639,12 @@
         <v>59</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>876.15000000000009</v>
+        <v>1752.3000000000002</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="7"/>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="K25" s="5">
         <f t="shared" si="4"/>
-        <v>1016.1500000000001</v>
+        <v>1892.3000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1684,12 +1684,12 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="0"/>
-        <v>868.72500000000014</v>
+        <v>1737.4500000000003</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="7"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="K26" s="5">
         <f t="shared" si="4"/>
-        <v>1018.7250000000001</v>
+        <v>1887.4500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1729,12 +1729,12 @@
         <v>58</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="0"/>
-        <v>861.30000000000007</v>
+        <v>1722.6000000000001</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="7"/>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" si="4"/>
-        <v>1021.3000000000001</v>
+        <v>1882.6000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1774,12 +1774,12 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
-        <v>853.87500000000011</v>
+        <v>1707.7500000000002</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="7"/>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="K28" s="5">
         <f t="shared" si="4"/>
-        <v>1023.8750000000001</v>
+        <v>1877.7500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1819,12 +1819,12 @@
         <v>57</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="0"/>
-        <v>846.45</v>
+        <v>1692.9</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="7"/>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="K29" s="5">
         <f t="shared" si="4"/>
-        <v>1026.45</v>
+        <v>1872.9</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1864,12 +1864,12 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="0"/>
-        <v>839.02500000000009</v>
+        <v>1678.0500000000002</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="7"/>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K30" s="5">
         <f t="shared" si="4"/>
-        <v>1029.0250000000001</v>
+        <v>1868.0500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1909,12 +1909,12 @@
         <v>56</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="0"/>
-        <v>831.60000000000014</v>
+        <v>1663.2000000000003</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="7"/>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="K31" s="5">
         <f t="shared" si="4"/>
-        <v>1031.6000000000001</v>
+        <v>1863.2000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1954,12 +1954,12 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="0"/>
-        <v>824.17500000000007</v>
+        <v>1648.3500000000001</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="7"/>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="K32" s="5">
         <f t="shared" si="4"/>
-        <v>1034.1750000000002</v>
+        <v>1858.3500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1999,12 +1999,12 @@
         <v>55</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="0"/>
-        <v>816.75000000000011</v>
+        <v>1633.5000000000002</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="7"/>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="K33" s="5">
         <f t="shared" si="4"/>
-        <v>1036.75</v>
+        <v>1853.5000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2044,12 +2044,12 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="10"/>
-        <v>14.850000000000001</v>
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="0"/>
-        <v>809.32500000000005</v>
+        <v>1618.65</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="7"/>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K34" s="5">
         <f t="shared" si="4"/>
-        <v>1039.325</v>
+        <v>1848.65</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2089,7 +2089,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="10"/>
+        <f>$A$1*1.1/2</f>
         <v>14.850000000000001</v>
       </c>
       <c r="E35" s="5">
@@ -2134,7 +2134,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>14.850000000000001</v>
       </c>
       <c r="E36" s="5">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>44632</v>
+        <v>66105</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>

--- a/LR3/table_1_27.xlsx
+++ b/LR3/table_1_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA08005-7E61-4819-A1CF-CEF164197E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC0DA9A-87CD-4846-A330-DA119DD1CB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>44805</v>
       </c>
       <c r="H3">
-        <f>IF(G3&gt;F3,G3-F3,0)</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -590,7 +590,7 @@
         <v>44806</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H38" si="5">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="5">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4">
@@ -2141,8 +2141,8 @@
         <v>40</v>
       </c>
       <c r="C40" s="4">
-        <f>FLOOR(SUM(K3:K38),2)</f>
-        <v>66104</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>66105</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">

--- a/LR3/table_1_27.xlsx
+++ b/LR3/table_1_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC0DA9A-87CD-4846-A330-DA119DD1CB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0482A212-071F-4627-8D7C-8ABA91ECA04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>70</v>
       </c>
       <c r="D3">
-        <f>A1*1.1</f>
+        <f>$A$1*1.1</f>
         <v>29.700000000000003</v>
       </c>
       <c r="E3">
@@ -574,7 +574,7 @@
         <v>69.5</v>
       </c>
       <c r="D4">
-        <f>D3</f>
+        <f t="shared" ref="D4:D38" si="4">$A$1*1.1</f>
         <v>29.700000000000003</v>
       </c>
       <c r="E4">
@@ -582,7 +582,7 @@
         <v>2064.15</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F38" si="4">F3</f>
+        <f t="shared" ref="F4:F38" si="5">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
@@ -590,11 +590,11 @@
         <v>44806</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H38" si="5">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="6">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I38" si="6">I3</f>
+        <f t="shared" ref="I4:I38" si="7">I3</f>
         <v>10</v>
       </c>
       <c r="J4">
@@ -608,7 +608,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="7">A4+1</f>
+        <f t="shared" ref="A5:A38" si="8">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -619,7 +619,7 @@
         <v>69</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D38" si="8">D4</f>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E5">
@@ -627,7 +627,7 @@
         <v>2049.3000000000002</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
@@ -635,11 +635,11 @@
         <v>44807</v>
       </c>
       <c r="H5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J5">
@@ -653,7 +653,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -664,7 +664,7 @@
         <v>68.5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E6">
@@ -672,7 +672,7 @@
         <v>2034.4500000000003</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
@@ -680,11 +680,11 @@
         <v>44808</v>
       </c>
       <c r="H6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6">
@@ -698,7 +698,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -709,7 +709,7 @@
         <v>68</v>
       </c>
       <c r="D7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E7">
@@ -717,7 +717,7 @@
         <v>2019.6000000000001</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
@@ -725,11 +725,11 @@
         <v>44809</v>
       </c>
       <c r="H7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7">
@@ -743,7 +743,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -754,7 +754,7 @@
         <v>67.5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E8">
@@ -762,7 +762,7 @@
         <v>2004.7500000000002</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
@@ -770,11 +770,11 @@
         <v>44810</v>
       </c>
       <c r="H8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8">
@@ -788,7 +788,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -799,7 +799,7 @@
         <v>67</v>
       </c>
       <c r="D9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E9">
@@ -807,7 +807,7 @@
         <v>1989.9</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
@@ -815,11 +815,11 @@
         <v>44811</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9">
@@ -833,7 +833,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -844,7 +844,7 @@
         <v>66.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E10">
@@ -852,7 +852,7 @@
         <v>1975.0500000000002</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
@@ -860,11 +860,11 @@
         <v>44812</v>
       </c>
       <c r="H10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10">
@@ -878,7 +878,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -889,7 +889,7 @@
         <v>66</v>
       </c>
       <c r="D11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E11">
@@ -897,7 +897,7 @@
         <v>1960.2000000000003</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
@@ -905,11 +905,11 @@
         <v>44813</v>
       </c>
       <c r="H11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11">
@@ -923,7 +923,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -934,7 +934,7 @@
         <v>65.5</v>
       </c>
       <c r="D12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E12">
@@ -942,7 +942,7 @@
         <v>1945.3500000000001</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
@@ -950,11 +950,11 @@
         <v>44814</v>
       </c>
       <c r="H12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12">
@@ -968,7 +968,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -979,7 +979,7 @@
         <v>65</v>
       </c>
       <c r="D13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E13">
@@ -987,7 +987,7 @@
         <v>1930.5000000000002</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
@@ -995,11 +995,11 @@
         <v>44815</v>
       </c>
       <c r="H13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13">
@@ -1013,7 +1013,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1024,7 +1024,7 @@
         <v>64.5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E14">
@@ -1032,7 +1032,7 @@
         <v>1915.65</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
@@ -1040,11 +1040,11 @@
         <v>44816</v>
       </c>
       <c r="H14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14">
@@ -1058,7 +1058,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1069,7 +1069,7 @@
         <v>64</v>
       </c>
       <c r="D15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E15">
@@ -1077,7 +1077,7 @@
         <v>1900.8000000000002</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
@@ -1085,11 +1085,11 @@
         <v>44817</v>
       </c>
       <c r="H15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15">
@@ -1103,7 +1103,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1114,7 +1114,7 @@
         <v>63.5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E16">
@@ -1122,7 +1122,7 @@
         <v>1885.9500000000003</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
@@ -1130,11 +1130,11 @@
         <v>44818</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16">
@@ -1148,7 +1148,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1159,7 +1159,7 @@
         <v>63</v>
       </c>
       <c r="D17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E17">
@@ -1167,7 +1167,7 @@
         <v>1871.1000000000001</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
@@ -1175,11 +1175,11 @@
         <v>44819</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17">
@@ -1193,7 +1193,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1204,7 +1204,7 @@
         <v>62.5</v>
       </c>
       <c r="D18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E18">
@@ -1212,7 +1212,7 @@
         <v>1856.2500000000002</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
@@ -1220,11 +1220,11 @@
         <v>44820</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18">
@@ -1238,7 +1238,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1249,7 +1249,7 @@
         <v>62</v>
       </c>
       <c r="D19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E19">
@@ -1257,7 +1257,7 @@
         <v>1841.4</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
@@ -1265,11 +1265,11 @@
         <v>44821</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19">
@@ -1283,7 +1283,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1294,7 +1294,7 @@
         <v>61.5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E20">
@@ -1302,7 +1302,7 @@
         <v>1826.5500000000002</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
@@ -1310,11 +1310,11 @@
         <v>44822</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20">
@@ -1328,7 +1328,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1339,7 +1339,7 @@
         <v>61</v>
       </c>
       <c r="D21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E21">
@@ -1347,7 +1347,7 @@
         <v>1811.7000000000003</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
@@ -1355,11 +1355,11 @@
         <v>44823</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21">
@@ -1373,7 +1373,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1384,7 +1384,7 @@
         <v>60.5</v>
       </c>
       <c r="D22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E22">
@@ -1392,7 +1392,7 @@
         <v>1796.8500000000001</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
@@ -1400,11 +1400,11 @@
         <v>44824</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="I22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22">
@@ -1418,7 +1418,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1429,7 +1429,7 @@
         <v>60</v>
       </c>
       <c r="D23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E23">
@@ -1437,7 +1437,7 @@
         <v>1782.0000000000002</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
@@ -1445,11 +1445,11 @@
         <v>44825</v>
       </c>
       <c r="H23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="I23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23">
@@ -1463,7 +1463,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1474,7 +1474,7 @@
         <v>59.5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E24">
@@ -1482,7 +1482,7 @@
         <v>1767.15</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
@@ -1490,11 +1490,11 @@
         <v>44826</v>
       </c>
       <c r="H24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24">
@@ -1508,7 +1508,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1519,7 +1519,7 @@
         <v>59</v>
       </c>
       <c r="D25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E25">
@@ -1527,7 +1527,7 @@
         <v>1752.3000000000002</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
@@ -1535,11 +1535,11 @@
         <v>44827</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25">
@@ -1553,7 +1553,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -1564,7 +1564,7 @@
         <v>58.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E26">
@@ -1572,7 +1572,7 @@
         <v>1737.4500000000003</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
@@ -1580,11 +1580,11 @@
         <v>44828</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26">
@@ -1598,7 +1598,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -1609,7 +1609,7 @@
         <v>58</v>
       </c>
       <c r="D27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E27">
@@ -1617,7 +1617,7 @@
         <v>1722.6000000000001</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
@@ -1625,11 +1625,11 @@
         <v>44829</v>
       </c>
       <c r="H27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="I27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27">
@@ -1643,7 +1643,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -1654,7 +1654,7 @@
         <v>57.5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E28">
@@ -1662,7 +1662,7 @@
         <v>1707.7500000000002</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
@@ -1670,11 +1670,11 @@
         <v>44830</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="I28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28">
@@ -1688,7 +1688,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -1699,7 +1699,7 @@
         <v>57</v>
       </c>
       <c r="D29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E29">
@@ -1707,7 +1707,7 @@
         <v>1692.9</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
@@ -1715,11 +1715,11 @@
         <v>44831</v>
       </c>
       <c r="H29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29">
@@ -1733,7 +1733,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -1744,7 +1744,7 @@
         <v>56.5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E30">
@@ -1752,7 +1752,7 @@
         <v>1678.0500000000002</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
@@ -1760,11 +1760,11 @@
         <v>44832</v>
       </c>
       <c r="H30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30">
@@ -1778,7 +1778,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -1789,7 +1789,7 @@
         <v>56</v>
       </c>
       <c r="D31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E31">
@@ -1797,7 +1797,7 @@
         <v>1663.2000000000003</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
@@ -1805,11 +1805,11 @@
         <v>44833</v>
       </c>
       <c r="H31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31">
@@ -1823,7 +1823,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -1834,7 +1834,7 @@
         <v>55.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E32">
@@ -1842,7 +1842,7 @@
         <v>1648.3500000000001</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
@@ -1850,11 +1850,11 @@
         <v>44834</v>
       </c>
       <c r="H32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32">
@@ -1868,7 +1868,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -1879,7 +1879,7 @@
         <v>55</v>
       </c>
       <c r="D33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E33">
@@ -1887,7 +1887,7 @@
         <v>1633.5000000000002</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
@@ -1895,11 +1895,11 @@
         <v>44835</v>
       </c>
       <c r="H33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="I33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33">
@@ -1913,7 +1913,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -1924,7 +1924,7 @@
         <v>54.5</v>
       </c>
       <c r="D34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
       <c r="E34">
@@ -1932,7 +1932,7 @@
         <v>1618.65</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
@@ -1940,11 +1940,11 @@
         <v>44836</v>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="I34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34">
@@ -1958,7 +1958,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -1969,7 +1969,7 @@
         <v>54</v>
       </c>
       <c r="D35">
-        <f>D3/2</f>
+        <f>$A$1*1.1/2</f>
         <v>14.850000000000001</v>
       </c>
       <c r="E35">
@@ -1977,7 +1977,7 @@
         <v>801.90000000000009</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
@@ -1985,11 +1985,11 @@
         <v>44837</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="I35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35">
@@ -2003,7 +2003,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -2014,7 +2014,7 @@
         <v>53.5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>14.850000000000001</v>
       </c>
       <c r="E36">
@@ -2022,7 +2022,7 @@
         <v>794.47500000000002</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
@@ -2030,11 +2030,11 @@
         <v>44838</v>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="I36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36">
@@ -2048,7 +2048,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -2059,7 +2059,7 @@
         <v>53</v>
       </c>
       <c r="D37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.850000000000001</v>
       </c>
       <c r="E37">
@@ -2067,7 +2067,7 @@
         <v>787.05000000000007</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
@@ -2075,11 +2075,11 @@
         <v>44839</v>
       </c>
       <c r="H37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37">
@@ -2093,7 +2093,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -2104,7 +2104,7 @@
         <v>52.5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.850000000000001</v>
       </c>
       <c r="E38">
@@ -2112,7 +2112,7 @@
         <v>779.62500000000011</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
@@ -2120,11 +2120,11 @@
         <v>44840</v>
       </c>
       <c r="H38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="I38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38">
